--- a/data/2.Estetica/leads_estetica_completo.xlsx
+++ b/data/2.Estetica/leads_estetica_completo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgar\OneDrive\Documentos\GitHub\Leads_sheacher\data\2.Estetica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED4BEF-DA92-4B34-9D57-3B7F21295FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF36648-F821-41E3-B3B5-A402D39BCA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="267">
   <si>
     <t>Nombre</t>
   </si>
@@ -831,6 +831,9 @@
   </si>
   <si>
     <t>esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;mq@montserratquiros.es;info@brentonclinic.com;tbcchile@thebeautyconcept.com;edytabeauty@gmail.com;info@thesecretlab.es;citas@ecoteliernatural.es;gp@eternalbeautyclinic.com;baoba@baobabelleza.com;hi@typemade.mx;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com</t>
+  </si>
+  <si>
+    <t>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1944,7 @@
       <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="2" t="str">
         <f>E27</f>
         <v>contacto@clinicaesvital.com</v>
       </c>
@@ -1968,7 +1971,7 @@
       <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com</v>
       </c>
@@ -1995,7 +1998,7 @@
       <c r="G29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es</v>
       </c>
@@ -2022,7 +2025,7 @@
       <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es</v>
       </c>
@@ -2049,7 +2052,7 @@
       <c r="G31" t="s">
         <v>13</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com</v>
       </c>
@@ -2076,7 +2079,7 @@
       <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com</v>
       </c>
@@ -2103,7 +2106,7 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com</v>
       </c>
@@ -2130,7 +2133,7 @@
       <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic</v>
       </c>
@@ -2157,7 +2160,7 @@
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com</v>
       </c>
@@ -2184,7 +2187,7 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com</v>
       </c>
@@ -2211,7 +2214,7 @@
       <c r="G37" t="s">
         <v>13</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com</v>
       </c>
@@ -2238,7 +2241,7 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es</v>
       </c>
@@ -2265,7 +2268,7 @@
       <c r="G39" t="s">
         <v>13</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es</v>
       </c>
@@ -2292,7 +2295,7 @@
       <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com</v>
       </c>
@@ -2319,9 +2322,8 @@
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com</v>
+      <c r="H41" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2347,8 +2349,8 @@
         <v>13</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com</v>
+        <f>E42</f>
+        <v>%20femsiebelleza@gmail.com</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2375,7 +2377,7 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2402,7 +2404,7 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2429,7 +2431,7 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,7 +2458,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2483,7 +2485,7 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2510,7 +2512,7 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2537,7 +2539,7 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2564,7 +2566,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2591,7 +2593,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,7 +2620,7 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2645,7 +2647,7 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2672,7 +2674,7 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2699,7 +2701,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,7 +2728,7 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2753,7 +2755,7 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2780,7 +2782,7 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2807,7 +2809,7 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2834,7 +2836,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,7 +2863,7 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,7 +2890,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,7 +2917,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2942,7 +2944,7 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,7 +2971,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,7 +2998,7 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3023,7 +3025,7 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" si="0"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3050,7 +3052,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H81" si="1">H67&amp;";"&amp;E68</f>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3077,7 +3079,7 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,7 +3106,7 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3131,7 +3133,7 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,7 +3160,7 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3185,7 +3187,7 @@
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3212,7 +3214,7 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3239,7 +3241,7 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,7 +3268,7 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,7 +3295,7 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,7 +3322,7 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,7 +3349,7 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3374,7 +3376,7 @@
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3401,7 +3403,7 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com;%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es;info@denovapharmaceutical.es</v>
+        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es;info@denovapharmaceutical.es</v>
       </c>
     </row>
   </sheetData>

--- a/data/2.Estetica/leads_estetica_completo.xlsx
+++ b/data/2.Estetica/leads_estetica_completo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgar\OneDrive\Documentos\GitHub\Leads_sheacher\data\2.Estetica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06ae8d044cc0a8d9/Documentos/GitHub/Leads_sheacher/data/2.Estetica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF36648-F821-41E3-B3B5-A402D39BCA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{1BF36648-F821-41E3-B3B5-A402D39BCA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24275D42-622F-47AA-B6A6-CF7E57243DAD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="270">
   <si>
     <t>Nombre</t>
   </si>
@@ -834,6 +834,15 @@
   </si>
   <si>
     <t>contacto@clinicaesvital.com;monicaruizcentroestetico8@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;info@clinicanazaret.com;esteticamartaaguayo@gmail.com;info@soymedicinaestetica.com;info@venusmed.clinic;pv@eternalbeautyclinic.com;n@clinicatrevi.com;info@clinicaesteticamadridcentro.com;hola@amaranestetica.es;info@esteticadelamirada.es;clinica@fercasy.com;durandomedicinaestetica@gmail.com</t>
+  </si>
+  <si>
+    <t>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com</t>
+  </si>
+  <si>
+    <t>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com</t>
+  </si>
+  <si>
+    <t>euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es;info@denovapharmaceutical.es</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2357,7 @@
       <c r="G42" t="s">
         <v>13</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" s="2" t="str">
         <f>E42</f>
         <v>%20femsiebelleza@gmail.com</v>
       </c>
@@ -2375,7 +2384,7 @@
       <c r="G43" t="s">
         <v>13</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com</v>
       </c>
@@ -2402,7 +2411,7 @@
       <c r="G44" t="s">
         <v>13</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com</v>
       </c>
@@ -2429,7 +2438,7 @@
       <c r="G45" t="s">
         <v>13</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com</v>
       </c>
@@ -2456,7 +2465,7 @@
       <c r="G46" t="s">
         <v>13</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com</v>
       </c>
@@ -2483,7 +2492,7 @@
       <c r="G47" t="s">
         <v>13</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com</v>
       </c>
@@ -2510,7 +2519,7 @@
       <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com</v>
       </c>
@@ -2537,7 +2546,7 @@
       <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es</v>
       </c>
@@ -2564,7 +2573,7 @@
       <c r="G50" t="s">
         <v>13</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com</v>
       </c>
@@ -2591,7 +2600,7 @@
       <c r="G51" t="s">
         <v>13</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com</v>
       </c>
@@ -2618,7 +2627,7 @@
       <c r="G52" t="s">
         <v>13</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es</v>
       </c>
@@ -2645,7 +2654,7 @@
       <c r="G53" t="s">
         <v>13</v>
       </c>
-      <c r="H53" t="str">
+      <c r="H53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es</v>
       </c>
@@ -2672,7 +2681,7 @@
       <c r="G54" t="s">
         <v>13</v>
       </c>
-      <c r="H54" t="str">
+      <c r="H54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com</v>
       </c>
@@ -2699,7 +2708,7 @@
       <c r="G55" t="s">
         <v>13</v>
       </c>
-      <c r="H55" t="str">
+      <c r="H55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es</v>
       </c>
@@ -2726,9 +2735,8 @@
       <c r="G56" t="s">
         <v>13</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com</v>
+      <c r="H56" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2753,9 +2761,9 @@
       <c r="G57" t="s">
         <v>13</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx</v>
+      <c r="H57" s="2" t="str">
+        <f>E57</f>
+        <v>hi@typemade.mx</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2780,9 +2788,9 @@
       <c r="G58" t="s">
         <v>13</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es</v>
+      <c r="H58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2807,9 +2815,9 @@
       <c r="G59" t="s">
         <v>13</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com</v>
+      <c r="H59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2834,9 +2842,9 @@
       <c r="G60" t="s">
         <v>13</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es</v>
+      <c r="H60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,9 +2869,9 @@
       <c r="G61" t="s">
         <v>13</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com</v>
+      <c r="H61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,9 +2896,9 @@
       <c r="G62" t="s">
         <v>13</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com</v>
+      <c r="H62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,9 +2923,9 @@
       <c r="G63" t="s">
         <v>13</v>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es</v>
+      <c r="H63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2942,9 +2950,9 @@
       <c r="G64" t="s">
         <v>13</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com</v>
+      <c r="H64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,9 +2977,9 @@
       <c r="G65" t="s">
         <v>13</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png</v>
+      <c r="H65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,9 +3004,9 @@
       <c r="G66" t="s">
         <v>13</v>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es</v>
+      <c r="H66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3023,9 +3031,9 @@
       <c r="G67" t="s">
         <v>13</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="0"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com</v>
+      <c r="H67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3050,9 +3058,9 @@
       <c r="G68" t="s">
         <v>13</v>
       </c>
-      <c r="H68" t="str">
+      <c r="H68" s="2" t="str">
         <f t="shared" ref="H68:H81" si="1">H67&amp;";"&amp;E68</f>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com</v>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3077,9 +3085,9 @@
       <c r="G69" t="s">
         <v>13</v>
       </c>
-      <c r="H69" t="str">
+      <c r="H69" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com</v>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,9 +3112,9 @@
       <c r="G70" t="s">
         <v>13</v>
       </c>
-      <c r="H70" t="str">
+      <c r="H70" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com</v>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3131,9 +3139,9 @@
       <c r="G71" t="s">
         <v>13</v>
       </c>
-      <c r="H71" t="str">
+      <c r="H71" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com</v>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,9 +3166,9 @@
       <c r="G72" t="s">
         <v>13</v>
       </c>
-      <c r="H72" t="str">
+      <c r="H72" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu</v>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3185,9 +3193,9 @@
       <c r="G73" t="s">
         <v>13</v>
       </c>
-      <c r="H73" t="str">
+      <c r="H73" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png</v>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3212,9 +3220,9 @@
       <c r="G74" t="s">
         <v>13</v>
       </c>
-      <c r="H74" t="str">
+      <c r="H74" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com</v>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3239,9 +3247,9 @@
       <c r="G75" t="s">
         <v>13</v>
       </c>
-      <c r="H75" t="str">
+      <c r="H75" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es</v>
+        <v>hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,9 +3274,8 @@
       <c r="G76" t="s">
         <v>13</v>
       </c>
-      <c r="H76" t="str">
-        <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com</v>
+      <c r="H76" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,9 +3300,9 @@
       <c r="G77" t="s">
         <v>13</v>
       </c>
-      <c r="H77" t="str">
-        <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com</v>
+      <c r="H77" s="2" t="str">
+        <f>E77</f>
+        <v>euroclinic@euroclinicalcobendas.com</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,9 +3327,9 @@
       <c r="G78" t="s">
         <v>13</v>
       </c>
-      <c r="H78" t="str">
+      <c r="H78" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com</v>
+        <v>euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,9 +3354,9 @@
       <c r="G79" t="s">
         <v>13</v>
       </c>
-      <c r="H79" t="str">
+      <c r="H79" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com</v>
+        <v>euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3374,9 +3381,9 @@
       <c r="G80" t="s">
         <v>13</v>
       </c>
-      <c r="H80" t="str">
+      <c r="H80" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es</v>
+        <v>euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3401,9 +3408,8 @@
       <c r="G81" t="s">
         <v>13</v>
       </c>
-      <c r="H81" t="str">
-        <f t="shared" si="1"/>
-        <v>%20femsiebelleza@gmail.com;estetica.himandher@gmail.com;spalookgerencia@gmail.com;info@drelenaberezo.com;dpo@felicidadcarrera.com;info@institutomedicinaestetica.com;contacto@clinicaesvital.com;info@thesecretlab.es;monicaruizcentroestetico8@gmail.com;edytabeauty@gmail.com;info@cliniquebeaute.es;info@esteticairismadrid.es;gp@eternalbeautyclinic.com;mq@montserratquiros.es;tbcchile@thebeautyconcept.com;hi@typemade.mx;info@miriamclinic.es;info@clinicanazaret.com;info@carmenortegaindiba.es;baoba@baobabelleza.com;info@brentonclinic.com;info@herabeauty.es;info@myestetic.com;spa-icon-dark-01@2x.png;contacto@estetica-tupiel.es;info@sapphiralamoraleja.com;susanasanchez07@gmail.com;mamachic.estetica@gmail.com;centrobodysilk@gmail.com;info@grupopedrojaen.com;info@belash.eu;dark-blue@2x.png;azalea@azaleaesthetics.com;alcobendas@laserum.es;silcago@gmail.com;euroclinic@euroclinicalcobendas.com;info@clinicasquerales.com;cita@clinicavaldelasfuentes.com;sanse@centrosicono.es;info@denovapharmaceutical.es</v>
+      <c r="H81" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
